--- a/Assignment/Module 2/Whatsapp_web_HLR^0Test_case.xlsx
+++ b/Assignment/Module 2/Whatsapp_web_HLR^0Test_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VishalPC\OneDrive\Desktop\Tops Assignment\jagu-record\Assignment\Module 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AFE3D42-4F68-4934-BC40-9A64A487E997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7251A2-FACB-4FD9-8A55-A92D36EB4817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" HLR" sheetId="1" r:id="rId1"/>
@@ -1838,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2054,9 +2054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FF9CAE-06BA-4EC9-9E53-6C7C27D6864F}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,7 +3303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>192</v>
       </c>
